--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Documents\School\College\22SP\CS370\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDA771-23F4-49BB-B8F6-E7CFE23ADBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF8558-D61A-4731-9CD0-CAD4521880F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="108">
   <si>
     <t>Newspaper Database Dictionary</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Manager name of the department</t>
   </si>
   <si>
-    <t>PK,NOT NULL</t>
-  </si>
-  <si>
     <t>FK,NOT NULL</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>Primary key for the Language entity</t>
   </si>
   <si>
-    <t>Description of the language</t>
-  </si>
-  <si>
     <t>Primary key for the subscription entity</t>
   </si>
   <si>
@@ -343,6 +337,18 @@
   </si>
   <si>
     <t>Department ID from the Department Entity. Used to know what department works in this category.</t>
+  </si>
+  <si>
+    <t>PK, NOT NULL, AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>Language name</t>
+  </si>
+  <si>
+    <t>PK, NOT NULL, AUTO_INCREMENTING</t>
+  </si>
+  <si>
+    <t>PK,NOT NULL, AUTO_INCREMENTING</t>
   </si>
 </sst>
 </file>
@@ -590,9 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -693,6 +696,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,23 +725,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>175261</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B2A53B-C82E-456E-ABC8-5A5BC34E4D22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2E1D9E-CC91-4C4A-9DB2-CD31D897744E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,8 +764,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3322320" y="22829520"/>
-          <a:ext cx="6713220" cy="4556761"/>
+          <a:off x="3741420" y="22852380"/>
+          <a:ext cx="5943600" cy="4069080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1046,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,24 +1062,24 @@
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" customWidth="1"/>
     <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="10.050000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -1104,43 +1110,43 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="30" t="s">
+      <c r="M8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="30" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1154,170 +1160,170 @@
       <c r="F9" s="10">
         <v>6</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="19">
+        <v>6</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="13">
+        <v>6</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="22">
         <v>50</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="20" t="s">
+      <c r="N10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13">
+        <v>50</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="24">
+        <v>50</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="20">
-        <v>6</v>
-      </c>
-      <c r="N9" s="20" t="s">
+      <c r="F12" s="13">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="13">
         <v>50</v>
       </c>
-      <c r="O9" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="14">
-        <v>6</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="22" t="s">
+      <c r="G13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="E14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="23">
-        <v>50</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="14">
-        <v>50</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="25">
-        <v>50</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="14">
-        <v>6</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="14">
-        <v>50</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>100</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.5">
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>56</v>
       </c>
       <c r="K16" s="7"/>
@@ -1327,24 +1333,24 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="4:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D18" s="3"/>
@@ -1369,161 +1375,161 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="38" t="s">
+      <c r="F21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="38" t="s">
+      <c r="M21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="20">
-        <v>6</v>
-      </c>
-      <c r="G22" s="20" t="s">
+      <c r="F22" s="19">
+        <v>6</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="20">
-        <v>6</v>
-      </c>
-      <c r="N22" s="20" t="s">
+      <c r="M22" s="19">
+        <v>6</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="22">
+        <v>6</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="22">
+        <v>6</v>
+      </c>
+      <c r="N23" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O23" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="22">
+        <v>50</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="22">
+        <v>50</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="4:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="23">
-        <v>6</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="23">
-        <v>6</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="23" t="s">
+    <row r="25" spans="4:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F25" s="24">
         <v>50</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="23">
-        <v>50</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O24" s="15" t="s">
+      <c r="G25" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="17" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="25">
-        <v>50</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.3">
@@ -1546,181 +1552,183 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="38" t="s">
+      <c r="F28" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="37" t="s">
+      <c r="K28" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="38" t="s">
+      <c r="L28" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="38" t="s">
+      <c r="M28" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>10</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19">
+        <v>6</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="22">
+        <v>6</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="24">
         <v>50</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="20">
-        <v>6</v>
-      </c>
-      <c r="N29" s="20" t="s">
+      <c r="N30" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="22">
         <v>50</v>
       </c>
-      <c r="O29" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="4:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="23">
-        <v>6</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D31" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="23" t="s">
+      <c r="G31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F32" s="22">
         <v>50</v>
       </c>
-      <c r="G31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D32" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="23" t="s">
+      <c r="G32" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D33" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="23">
-        <v>50</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D33" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="23" t="s">
+      <c r="F33" s="22">
+        <v>100</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D34" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F34" s="22">
         <v>100</v>
       </c>
-      <c r="G33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D34" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="23" t="s">
+      <c r="G34" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F35" s="24">
         <v>100</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="4:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="25">
-        <v>100</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="18" t="s">
+      <c r="G35" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1741,189 +1749,189 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="38" t="s">
+      <c r="F38" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="29" t="s">
+      <c r="K38" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" s="30" t="s">
+      <c r="M38" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O38" s="31" t="s">
+      <c r="O38" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="20">
-        <v>6</v>
-      </c>
-      <c r="G39" s="20" t="s">
+      <c r="F39" s="19">
+        <v>6</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="19">
+        <v>6</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D40" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="22">
+        <v>6</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" s="22">
         <v>50</v>
       </c>
-      <c r="H39" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M39" s="20">
-        <v>6</v>
-      </c>
-      <c r="N39" s="20" t="s">
+      <c r="N40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D41" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="22">
+        <v>100</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="M41" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="N41" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D42" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="22">
         <v>50</v>
       </c>
-      <c r="O39" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D40" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="23">
-        <v>6</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M40" s="23">
-        <v>50</v>
-      </c>
-      <c r="N40" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D41" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="23">
-        <v>100</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="M41" s="43" t="s">
+      <c r="G42" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="N41" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="O41" s="15" t="s">
+      <c r="L42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="43" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D42" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="23">
-        <v>50</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="L42" s="23" t="s">
+      <c r="L43" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O42" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="4:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43" s="44" t="s">
+      <c r="M43" s="24"/>
+      <c r="N43" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="L43" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="O43" s="18" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1943,175 +1951,175 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="33" t="s">
+      <c r="F46" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="K46" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="L46" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" s="33" t="s">
+      <c r="M46" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="34" t="s">
+      <c r="O46" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>10</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="19">
+        <v>6</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O47" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="D48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="22">
+        <v>6</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" s="22">
+        <v>6</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D49" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="22">
+        <v>10</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49" s="22">
         <v>50</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K47" s="19" t="s">
+      <c r="N49" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L47" s="20" t="s">
+    </row>
+    <row r="50" spans="4:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M47" s="20">
-        <v>6</v>
-      </c>
-      <c r="N47" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="4:15" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="D48" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="23">
-        <v>6</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L48" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M48" s="23">
-        <v>6</v>
-      </c>
-      <c r="N48" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O48" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D49" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="23">
-        <v>10</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K49" s="22" t="s">
+      <c r="F51" s="24">
         <v>5</v>
       </c>
-      <c r="L49" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M49" s="23">
-        <v>50</v>
-      </c>
-      <c r="N49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="4:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K50" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="L50" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="O50" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="4:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D51" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="25">
-        <v>5</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="18" t="s">
+      <c r="G51" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="17" t="s">
         <v>81</v>
       </c>
     </row>
